--- a/data/trans_bre/P25_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_3-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>5,24</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-43,94%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>-9,21%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-15,42%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>551,42%</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31,86%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>551,66%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-28,54%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,52</t>
+          <t>-2,96; 2,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 3,5</t>
+          <t>-3,94; 2,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,05</t>
+          <t>0,49; 4,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 11,39</t>
+          <t>-4,33; 7,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>1,08; 10,75</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 3,31</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 445,23</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-89,37; 341,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-63,82; 354,71</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-87,24; 204,04</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,12%</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-60,2%</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>-12,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>-58,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-60,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,92%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>141,69%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 3,79</t>
+          <t>-4,81; 3,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 0,59</t>
+          <t>-6,23; 0,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,8</t>
+          <t>-2,92; 3,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 6,02</t>
+          <t>-11,22; -0,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,98; 203,3</t>
+          <t>-4,05; 5,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,83; 54,46</t>
+          <t>-0,85; 8,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,49; 257,33</t>
+          <t>-75,06; 169,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,29; 479,8</t>
+          <t>-90,86; 78,12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-65,62; 264,91</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-86,5; 12,5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-64,14; 585,57</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-40,01; 966,09</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,32</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-6,29</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-5,06</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-60,41%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-46,98%</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-45,52%</t>
+          <t>-51,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-42,02%</t>
+          <t>-43,98%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-45,76%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-42,86%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-42,01%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-20,66%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,44; -1,58</t>
+          <t>-13,41; -0,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -1,52</t>
+          <t>-11,05; -0,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -0,65</t>
+          <t>-13,7; -0,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 0,01</t>
+          <t>-12,21; 0,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,61; -17,67</t>
+          <t>-10,98; 0,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,84; -14,52</t>
+          <t>-11,33; 3,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-71,39; -7,31</t>
+          <t>-78,05; -4,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-69,16; 2,1</t>
+          <t>-68,55; -4,21</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-73,8; -9,28</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-67,54; 8,55</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-69,93; 2,29</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-54,45; 36,08</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>-8,27%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,41%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 7,77</t>
+          <t>-3,79; 7,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 5,21</t>
+          <t>-6,62; 4,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 7,97</t>
+          <t>-3,65; 8,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 7,89</t>
+          <t>-6,47; 7,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 79,13</t>
+          <t>-8,41; 7,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 43,07</t>
+          <t>-7,14; 8,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 63,19</t>
+          <t>-24,06; 78,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 54,8</t>
+          <t>-35,68; 35,08</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-19,02; 65,85</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-24,27; 45,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-35,47; 57,74</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-31,66; 52,92</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-0,78</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,56%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-11,93%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>-2,14%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 8,46</t>
+          <t>-6,3; 8,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 9,48</t>
+          <t>-6,0; 9,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 4,42</t>
+          <t>-11,17; 4,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 8,86</t>
+          <t>-8,55; 11,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 45,56</t>
+          <t>-11,01; 8,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 42,27</t>
+          <t>-8,42; 10,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 19,17</t>
+          <t>-25,74; 47,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 28,86</t>
+          <t>-19,74; 41,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-35,37; 17,6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-22,31; 38,67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-26,56; 28,98</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-22,88; 37,98</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,06</t>
+          <t>12,29</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>11,56</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,85%</t>
+          <t>65,24%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29,34%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-7,8%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>47,91%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 10,8</t>
+          <t>-8,3; 10,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,57; 20,46</t>
+          <t>3,34; 20,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 10,17</t>
+          <t>-7,5; 10,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 9,1</t>
+          <t>-3,65; 18,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 42,45</t>
+          <t>-14,99; 8,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,73; 147,09</t>
+          <t>0,49; 21,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 40,94</t>
+          <t>-22,84; 40,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 29,11</t>
+          <t>14,41; 139,07</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-21,04; 42,3</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-11,38; 94,33</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-37,4; 29,83</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 113,91</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>1,01</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,6%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>9,97%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20,78%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 2,89</t>
+          <t>-2,56; 3,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,94</t>
+          <t>-1,19; 3,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,03</t>
+          <t>-2,2; 3,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,67</t>
+          <t>-2,7; 4,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 23,55</t>
+          <t>-2,92; 4,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 33,58</t>
+          <t>0,03; 7,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 23,75</t>
+          <t>-16,45; 28,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 28,39</t>
+          <t>-8,5; 30,9</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-13,53; 24,05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; 23,89</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-14,48; 27,1</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 48,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
